--- a/2/data/phonggd.xlsx
+++ b/2/data/phonggd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buivu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buivu\Downloads\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1625FE-DF32-41DE-9A91-75F10BF2A001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC89629-AA77-4D53-9925-80BB7874C87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{445AAA5C-4B41-470E-A5F9-98B186C52036}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>phonggd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>maphonggd</t>
   </si>
@@ -573,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578F7441-12F9-4BC4-A5C3-73918D5C1A1D}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,14 +586,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -689,7 +688,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
@@ -729,7 +728,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>31</v>
@@ -737,7 +736,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>32</v>
@@ -745,7 +744,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
@@ -784,18 +783,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="2"/>
+      <c r="B26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
